--- a/analysis_output/descriptive_statistics.xlsx
+++ b/analysis_output/descriptive_statistics.xlsx
@@ -487,13 +487,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C2" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -518,13 +518,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="D3" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -549,10 +549,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C4" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="D4" t="n">
         <v>1.04</v>
@@ -580,13 +580,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C5" t="n">
-        <v>3.71</v>
+        <v>3.73</v>
       </c>
       <c r="D5" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C6" t="n">
-        <v>4.02</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C7" t="n">
-        <v>2.77</v>
+        <v>2.79</v>
       </c>
       <c r="D7" t="n">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -673,19 +673,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C8" t="n">
-        <v>3.58</v>
+        <v>3.62</v>
       </c>
       <c r="D8" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
         <v>4</v>
